--- a/Carga BF Voz (10).xlsx
+++ b/Carga BF Voz (10).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5272495A-84FA-4F48-A937-667B4EB7D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E5B6B2-5A6B-BA4C-8D47-193DA96551D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="1160" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9020" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9053" uniqueCount="1033">
   <si>
     <t>Pais</t>
   </si>
@@ -3175,6 +3175,15 @@
   </si>
   <si>
     <t>00:11:18</t>
+  </si>
+  <si>
+    <t>Seguro1</t>
+  </si>
+  <si>
+    <t>Direccion1</t>
+  </si>
+  <si>
+    <t>Campo11</t>
   </si>
 </sst>
 </file>
@@ -4019,10 +4028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA461F6B-6533-5245-8118-B409AFC94560}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4038,7 +4047,7 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>969</v>
       </c>
@@ -4090,8 +4099,17 @@
       <c r="Q1" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4143,8 +4161,17 @@
       <c r="Q2" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R2" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4196,8 +4223,17 @@
       <c r="Q3" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R3" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4249,8 +4285,17 @@
       <c r="Q4" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R4" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -4302,8 +4347,17 @@
       <c r="Q5" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R5" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4355,8 +4409,17 @@
       <c r="Q6" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R6" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -4408,8 +4471,17 @@
       <c r="Q7" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R7" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -4461,8 +4533,17 @@
       <c r="Q8" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R8" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -4514,8 +4595,17 @@
       <c r="Q9" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R9" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4567,8 +4657,17 @@
       <c r="Q10" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R10" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -4620,8 +4719,17 @@
       <c r="Q11" s="13" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="R11" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="33"/>
@@ -4632,7 +4740,7 @@
       <c r="I12" s="35"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="33"/>
@@ -4643,7 +4751,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="33"/>
@@ -4654,7 +4762,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="33"/>
@@ -4665,7 +4773,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:17" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="33"/>

--- a/Carga BF Voz (10).xlsx
+++ b/Carga BF Voz (10).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E5B6B2-5A6B-BA4C-8D47-193DA96551D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08333EE9-DDFF-2143-A6D5-AA2DAAD417D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="1160" windowWidth="27240" windowHeight="16440" xr2:uid="{F167972B-225C-3A43-988D-0E5FF5725D1E}"/>
   </bookViews>
@@ -3419,7 +3419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3518,46 +3518,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="21" fontId="9" fillId="6" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6B48AB0D-45CE-4046-B7FF-3527FA97EF17}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4028,10 +3994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA461F6B-6533-5245-8118-B409AFC94560}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4729,807 +4695,26 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="10"/>
-    </row>
-    <row r="61" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="10"/>
-    </row>
-    <row r="63" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="79" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="2:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="15" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  <conditionalFormatting sqref="H1:H11">
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12 J16 J20 J32 J36">
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H81">
-    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42 J46 J50 J62 J66 J70 J78">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52 J56 J60 J72 J76">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  <conditionalFormatting sqref="J1:J2 J6 J10">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -41800,32 +40985,28 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H884">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38 J42 J46 J58 J62 J66 J74 J78 J82 J94 J98 J102 J110 J114 J118 J130 J134 J138 J146 J150 J154 J166 J170 J174 J182 J186 J190 J202 J206 J210 J218 J222 J226 J238 J242 J246 J254 J258 J262 J274 J278 J282 J290 J294 J298 J310 J314 J318 J326 J330 J334 J346 J350 J354 J362 J366 J370 J382 J386 J390 J398 J402 J406 J418 J422 J426 J434 J438 J442 J454 J458 J462 J470 J474 J478 J490 J494 J498 J506 J510 J514 J526 J530 J534 J542 J546 J550 J562 J566 J570 J578 J582 J586 J598 J602 J606 J614 J618 J622 J634 J638 J642 J650 J654 J658 J670 J674 J678 J686 J690 J694 J706 J710 J714 J722 J726 J730 J742 J746 J750 J758 J762 J766 J778 J782 J786 J794 J798 J802 J814 J818 J822 J830 J834 J838 J850 J854 J858 J866 J870 J874">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J6 J10 J22 J26 J30 J38 J74 J110 J146 J182 J218 J254 J290 J326 J362 J398 J434 J470 J506 J542 J578 J614 J650 J686 J722 J758 J794 J830 J866 J42 J78 J114 J150 J186 J222 J258 J294 J330 J366 J402 J438 J474 J510 J546 J582 J618 J654 J690 J726 J762 J798 J834 J870 J46 J82 J118 J154 J190 J226 J262 J298 J334 J370 J406 J442 J478 J514 J550 J586 J622 J658 J694 J730 J766 J802 J838 J874 J58 J94 J130 J166 J202 J238 J274 J310 J346 J382 J418 J454 J490 J526 J562 J598 J634 J670 J706 J742 J778 J814 J850 J62 J98 J134 J170 J206 J242 J278 J314 J350 J386 J422 J458 J494 J530 J566 J602 J638 J674 J710 J746 J782 J818 J854 J66 J102 J138 J174 J210 J246 J282 J318 J354 J390 J426 J462 J498 J534 J570 J606 J642 J678 J714 J750 J786 J822 J858">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12 J16 J20 J32 J36 J48 J84 J120 J156 J192 J228 J264 J300 J336 J372 J408 J444 J480 J516 J552 J588 J624 J660 J696 J732 J768 J804 J840 J876 J52 J88 J124 J160 J196 J232 J268 J304 J340 J376 J412 J448 J484 J520 J556 J592 J628 J664 J700 J736 J772 J808 J844 J880 J56 J92 J128 J164 J200 J236 J272 J308 J344 J380 J416 J452 J488 J524 J560 J596 J632 J668 J704 J740 J776 J812 J848 J884 J68 J104 J140 J176 J212 J248 J284 J320 J356 J392 J428 J464 J500 J536 J572 J608 J644 J680 J716 J752 J788 J824 J860 J72 J108 J144 J180 J216 J252 J288 J324 J360 J396 J432 J468 J504 J540 J576 J612 J648 J684 J720 J756 J792 J828 J864">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="J12 J16 J20 J32 J36 J48 J52 J56 J68 J72 J84 J88 J92 J104 J108 J120 J124 J128 J140 J144 J156 J160 J164 J176 J180 J192 J196 J200 J212 J216 J228 J232 J236 J248 J252 J264 J268 J272 J284 J288 J300 J304 J308 J320 J324 J336 J340 J344 J356 J360 J372 J376 J380 J392 J396 J408 J412 J416 J428 J432 J444 J448 J452 J464 J468 J480 J484 J488 J500 J504 J516 J520 J524 J536 J540 J552 J556 J560 J572 J576 J588 J592 J596 J608 J612 J624 J628 J632 J644 J648 J660 J664 J668 J680 J684 J696 J700 J704 J716 J720 J732 J736 J740 J752 J756 J768 J772 J776 J788 J792 J804 J808 J812 J824 J828 J840 J844 J848 J860 J864 J876 J880 J884">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
